--- a/2022/Symphony/January/29.01.2022/MC Bank Statement January-2022.xlsx
+++ b/2022/Symphony/January/29.01.2022/MC Bank Statement January-2022.xlsx
@@ -3145,6 +3145,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3172,22 +3184,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5083,7 +5083,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6257,7 +6257,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6271,67 +6271,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="319" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
-      <c r="P1" s="315"/>
-      <c r="Q1" s="315"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="319"/>
+      <c r="Q1" s="319"/>
     </row>
     <row r="2" spans="1:24" s="72" customFormat="1" ht="18">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="320" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
-      <c r="G2" s="316"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="316"/>
-      <c r="J2" s="316"/>
-      <c r="K2" s="316"/>
-      <c r="L2" s="316"/>
-      <c r="M2" s="316"/>
-      <c r="N2" s="316"/>
-      <c r="O2" s="316"/>
-      <c r="P2" s="316"/>
-      <c r="Q2" s="316"/>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="320"/>
+      <c r="N2" s="320"/>
+      <c r="O2" s="320"/>
+      <c r="P2" s="320"/>
+      <c r="Q2" s="320"/>
     </row>
     <row r="3" spans="1:24" s="73" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="321" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="318"/>
-      <c r="O3" s="318"/>
-      <c r="P3" s="318"/>
-      <c r="Q3" s="319"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="323"/>
       <c r="S3" s="56"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6340,52 +6340,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="324" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="326" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="324" t="s">
+      <c r="C4" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="315" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="315" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="315" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="324" t="s">
+      <c r="G4" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="324" t="s">
+      <c r="H4" s="315" t="s">
         <v>201</v>
       </c>
-      <c r="I4" s="324" t="s">
+      <c r="I4" s="315" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="324" t="s">
+      <c r="K4" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="324" t="s">
+      <c r="L4" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="324" t="s">
+      <c r="M4" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="324" t="s">
+      <c r="N4" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="328" t="s">
+      <c r="O4" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="326" t="s">
+      <c r="P4" s="328" t="s">
         <v>73</v>
       </c>
       <c r="Q4" s="135" t="s">
@@ -6398,22 +6398,22 @@
       <c r="W4" s="76"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="321"/>
-      <c r="B5" s="323"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
-      <c r="E5" s="325"/>
-      <c r="F5" s="325"/>
-      <c r="G5" s="325"/>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
-      <c r="N5" s="325"/>
-      <c r="O5" s="329"/>
-      <c r="P5" s="327"/>
+      <c r="A5" s="325"/>
+      <c r="B5" s="327"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="316"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="316"/>
+      <c r="N5" s="316"/>
+      <c r="O5" s="318"/>
+      <c r="P5" s="329"/>
       <c r="Q5" s="136" t="s">
         <v>48</v>
       </c>
@@ -9610,8 +9610,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9629,6 +9627,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9642,8 +9642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34277,8 +34277,8 @@
   </sheetPr>
   <dimension ref="A1:Y219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34454,7 +34454,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="259">
-        <v>11174.210561905056</v>
+        <v>8474.2105619050562</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="283"/>
@@ -34536,7 +34536,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="263">
-        <v>51569</v>
+        <v>54269</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="41" t="s">
@@ -34608,7 +34608,7 @@
       </c>
       <c r="B12" s="264">
         <f>B6+B7+B8-B10-B11</f>
-        <v>238974.84391904774</v>
+        <v>236274.84391904774</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="41" t="s">
@@ -34676,7 +34676,7 @@
         <v>248</v>
       </c>
       <c r="B14" s="294">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="132"/>
@@ -34707,8 +34707,8 @@
         <v>5</v>
       </c>
       <c r="B15" s="265">
-        <f>B5+B6+B7+B8-B10-B11+B14</f>
-        <v>8538974.8439190481</v>
+        <f>B5+B6-B10-B13+B14</f>
+        <v>8536274.8439190481</v>
       </c>
       <c r="C15" s="42"/>
       <c r="D15" s="42" t="s">
@@ -34716,7 +34716,7 @@
       </c>
       <c r="E15" s="262">
         <f>E5+E6+E7+E10+E11+E12+E13</f>
-        <v>8538974.8439190481</v>
+        <v>8536274.8439190481</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="119">
